--- a/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.96696655831535</v>
+        <v>89.93923214457715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3730753160914801</v>
+        <v>0.3871916286279133</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.04106646071692</v>
+        <v>89.03258312611351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3618233220981771</v>
+        <v>0.362058313402386</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.97856004454766</v>
+        <v>87.9312838959838</v>
       </c>
       <c r="D4" t="n">
-        <v>0.374975236037853</v>
+        <v>0.4080222994133625</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.03614059299792</v>
+        <v>86.98653846784502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3710320009813873</v>
+        <v>0.3595381125080395</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.01150441560817</v>
+        <v>86.0001187568691</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3435006406734195</v>
+        <v>0.4018394092898308</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.98252790237652</v>
+        <v>84.99377380012469</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3859746438496961</v>
+        <v>0.3691432501605426</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.94397089841199</v>
+        <v>84.01178958428551</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3844724588070605</v>
+        <v>0.4020500210950925</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.01202608833636</v>
+        <v>83.01463128144476</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3954528967524182</v>
+        <v>0.3834724746879795</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.01965361376004</v>
+        <v>81.99305727040343</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4133885296141345</v>
+        <v>0.3896358807883907</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.9139929455507</v>
+        <v>80.95417575724056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3996086838287689</v>
+        <v>0.3852454444701428</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.94453151061013</v>
+        <v>79.99142248223957</v>
       </c>
       <c r="D12" t="n">
-        <v>0.409023096782469</v>
+        <v>0.3612774882457642</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.00858738617111</v>
+        <v>78.97944030747696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3583257361770279</v>
+        <v>0.3939932909006186</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.00640001301389</v>
+        <v>77.97466444638916</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4195701976577799</v>
+        <v>0.3790393433922791</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.97093738445939</v>
+        <v>77.01039033465482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4196340589763041</v>
+        <v>0.400038136999982</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.995187585211</v>
+        <v>76.02893770733156</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4017031207941757</v>
+        <v>0.3806842056090481</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.03015942132043</v>
+        <v>74.99998039379079</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3777963983733273</v>
+        <v>0.4467237118309947</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.01798100565324</v>
+        <v>74.01798662170496</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4054531293773063</v>
+        <v>0.4177064238794686</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.93883097013104</v>
+        <v>72.94553276728529</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4103596945665754</v>
+        <v>0.3660541549463592</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.01441618053006</v>
+        <v>71.97975748834038</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4190729081916379</v>
+        <v>0.3706429405347427</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.01434683105791</v>
+        <v>71.00863486259213</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3848683172858826</v>
+        <v>0.4136122466441214</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.00052026160745</v>
+        <v>70.05848941930354</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4344780451554536</v>
+        <v>0.3926371230803684</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.01639152535999</v>
+        <v>68.98688873432511</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3679616528486639</v>
+        <v>0.4253308926046747</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.97271437184473</v>
+        <v>67.96990449647932</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3971532094555627</v>
+        <v>0.3915304081104203</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.06182405844778</v>
+        <v>67.03970715646365</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3625132460103053</v>
+        <v>0.4393185056871309</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.98742559566045</v>
+        <v>65.97002533310457</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4190906395525228</v>
+        <v>0.4522978152376086</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.98660498602932</v>
+        <v>65.0113622306295</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4224335599725031</v>
+        <v>0.4029558889449305</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.9550288373528</v>
+        <v>63.98627387314107</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4103018999710918</v>
+        <v>0.4234597261584369</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.02883176494106</v>
+        <v>63.09018585524102</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3726411574310784</v>
+        <v>0.3702627483484011</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.0198672507666</v>
+        <v>61.98087072246376</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4477938260151241</v>
+        <v>0.3920087941456513</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.01334676738859</v>
+        <v>61.001640794415</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3585318902992817</v>
+        <v>0.411720821789337</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.0098228521546</v>
+        <v>59.93188984341233</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4109547472824108</v>
+        <v>0.3909033729203992</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.97406548761263</v>
+        <v>59.00960611641276</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4077418097982971</v>
+        <v>0.3914852115622899</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.03479401185272</v>
+        <v>57.92536501431827</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3909533992848815</v>
+        <v>0.3657749665202767</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.07396959886984</v>
+        <v>57.0484184876473</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4178100853053166</v>
+        <v>0.4142860611989003</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.96998298707103</v>
+        <v>56.00244424805361</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4285650089757048</v>
+        <v>0.4243860171854815</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.03899806769323</v>
+        <v>55.04052300686306</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4052282618405179</v>
+        <v>0.4349427724687591</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.99316217798528</v>
+        <v>53.99647367739621</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4077373434948623</v>
+        <v>0.4014914725012134</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.0033200035759</v>
+        <v>52.96344391037857</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3784711944958977</v>
+        <v>0.4018934473583156</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.01787803185265</v>
+        <v>52.01849676706531</v>
       </c>
       <c r="D40" t="n">
-        <v>0.419054900947466</v>
+        <v>0.3766566700342305</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.06287670990588</v>
+        <v>51.00787028231906</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4024700942719378</v>
+        <v>0.4625906591969244</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.99475551466584</v>
+        <v>49.99274899116063</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3952869490828345</v>
+        <v>0.4607415524305321</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.97185199637241</v>
+        <v>49.02430766669065</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4625912617238556</v>
+        <v>0.3870660970055246</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.03456229632341</v>
+        <v>48.0618255601067</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4316670517228526</v>
+        <v>0.4411002581169188</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.03055300553979</v>
+        <v>46.96126930265022</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4365630818988404</v>
+        <v>0.4205360653783594</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.08011272125044</v>
+        <v>46.01363327029983</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4140544782907664</v>
+        <v>0.4136417179299794</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.05820192809516</v>
+        <v>44.9244951262078</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4644988521736542</v>
+        <v>0.415622675254991</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.98315560923228</v>
+        <v>44.0023785742625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4047878534416501</v>
+        <v>0.4561962720808314</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.03978329240945</v>
+        <v>43.00399511114729</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3996821879707451</v>
+        <v>0.4369097652558091</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.96183555794494</v>
+        <v>41.99250477465554</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4174836557670125</v>
+        <v>0.4587985921738199</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.90412147047163</v>
+        <v>41.09649022811821</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4058616230299439</v>
+        <v>0.4305980553645101</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.98911091272922</v>
+        <v>40.03794423591557</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3797617114917897</v>
+        <v>0.3847629195615537</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.01518800844944</v>
+        <v>38.91251010453699</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4450071625948664</v>
+        <v>0.5119810322067007</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.97643677332217</v>
+        <v>38.06643791243018</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5183665984014865</v>
+        <v>0.4697702860313063</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.99203017611226</v>
+        <v>37.00378490942097</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3895405678036066</v>
+        <v>0.384070240916406</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.02456113582964</v>
+        <v>35.98486448450301</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3991552143944936</v>
+        <v>0.4366995383567894</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.91400203186115</v>
+        <v>35.02099589121404</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4777780027882699</v>
+        <v>0.4358009889799813</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.05298869634758</v>
+        <v>33.96505273322367</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4338114586464055</v>
+        <v>0.4607082782921195</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.98998655362413</v>
+        <v>33.02298999924594</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5158586896044629</v>
+        <v>0.4223447232868556</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.05287508952331</v>
+        <v>32.02306079849151</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4036123950503931</v>
+        <v>0.4297412916404859</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.02294957511204</v>
+        <v>31.05083139809689</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4173878174470073</v>
+        <v>0.4381478676906176</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.90997726045361</v>
+        <v>30.01480856137429</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4595920062742571</v>
+        <v>0.4100654796491728</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.00795811960396</v>
+        <v>29.00182085533761</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4165300486336849</v>
+        <v>0.4593201393631647</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.93384532214538</v>
+        <v>27.93890808446393</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5381511076368102</v>
+        <v>0.4708190515377792</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.96094136561475</v>
+        <v>27.04544012721517</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4143683901933629</v>
+        <v>0.4158557958482984</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.01034485222216</v>
+        <v>26.04578589368284</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3610292030344473</v>
+        <v>0.447086437629671</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.97308669258966</v>
+        <v>25.0291956180538</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4953290058636784</v>
+        <v>0.4196049601677889</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.98847443306665</v>
+        <v>24.05077055537099</v>
       </c>
       <c r="D68" t="n">
-        <v>0.401225980065531</v>
+        <v>0.4700832155866337</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.94100626702335</v>
+        <v>22.93200825157976</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4111463449288424</v>
+        <v>0.4660626827284955</v>
       </c>
     </row>
   </sheetData>
